--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sherif/Desktop/Training/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aalzughibi.t\Desktop\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21B0D1BF-8EDF-B849-9689-3C81CC3ACF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="3000" windowWidth="23440" windowHeight="12120" xr2:uid="{B4869506-5AAD-E645-BEC3-312ED61EBDD5}"/>
+    <workbookView xWindow="2078" yWindow="3000" windowWidth="23438" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>task id</t>
   </si>
@@ -43,12 +42,24 @@
   </si>
   <si>
     <t>task description</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>test 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -393,21 +404,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEC028A-538E-6549-87B6-BFF12AE43B85}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,12 +427,35 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K5C2D91 This message/document has been classified as “Internal”&amp;1#_x000D_</oddHeader>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K5C2D91This message/document has been classified as “Internal”&amp;1#_x000D_&amp;"Calibri"&amp;11&amp;K000000</oddHeader>
   </headerFooter>
 </worksheet>
 </file>